--- a/Yapılacak Aviyonik Testler ve açıklamaları.xlsx
+++ b/Yapılacak Aviyonik Testler ve açıklamaları.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMET HUSREV EROL\Desktop\excelsablonlari-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064B53E-5A21-4F57-B7D0-78295E71A7AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD42ED7A-4501-447C-9182-08C54F770355}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0981C77B-4F5D-47D6-BD6F-56C04E1BE34F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +38,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -143,19 +151,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -480,7 +488,7 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,547 +498,623 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="3"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="3"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="3"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3"/>
-      <c r="B124" s="1"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="3"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="3"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="3"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A32:A33"/>
@@ -1043,102 +1127,26 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
